--- a/results/mp/logistic/corona/confidence/210/stop-words-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-masking-0.1/avg_0.003_scores.xlsx
@@ -43,42 +43,48 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>falling</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -88,21 +94,15 @@
     <t>cut</t>
   </si>
   <si>
-    <t>lower</t>
+    <t>stop</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
-    <t>oil</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
@@ -124,100 +124,100 @@
     <t>happy</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>gt</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>please</t>
+    <t>relief</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>well</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
         <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,13 +644,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8235294117647058</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -694,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8116438356164384</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C4">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>33</v>
@@ -744,13 +744,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7837837837837838</v>
+        <v>0.815068493150685</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -762,19 +762,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -794,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7631578947368421</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C6">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -812,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K6">
-        <v>0.9230769230769231</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -844,13 +844,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7586206896551724</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -894,13 +894,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.75</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -912,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K8">
-        <v>0.8571428571428571</v>
+        <v>0.814621409921671</v>
       </c>
       <c r="L8">
-        <v>96</v>
+        <v>312</v>
       </c>
       <c r="M8">
-        <v>96</v>
+        <v>312</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7333333333333333</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K9">
-        <v>0.8328981723237598</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="L9">
-        <v>319</v>
+        <v>34</v>
       </c>
       <c r="M9">
-        <v>319</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>64</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -994,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.575</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K10">
-        <v>0.8170731707317073</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L10">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M10">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1036,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1044,13 +1044,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5423728813559322</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1094,13 +1094,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5343915343915344</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C12">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D12">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1112,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K12">
-        <v>0.8055555555555556</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1144,13 +1144,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5294117647058824</v>
+        <v>0.5310077519379846</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>274</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>274</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1162,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>24</v>
+        <v>242</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K13">
-        <v>0.7924528301886793</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L13">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="M13">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1194,13 +1194,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5271317829457365</v>
+        <v>0.525</v>
       </c>
       <c r="C14">
-        <v>272</v>
+        <v>21</v>
       </c>
       <c r="D14">
-        <v>272</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1212,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>244</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K14">
-        <v>0.7878787878787878</v>
+        <v>0.775</v>
       </c>
       <c r="L14">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1244,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4496644295302014</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C15">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1262,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K15">
-        <v>0.7872340425531915</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1294,13 +1294,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3866666666666667</v>
+        <v>0.4765100671140939</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1312,19 +1312,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K16">
-        <v>0.7857142857142857</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L16">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="M16">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1344,13 +1344,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3636363636363636</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1362,19 +1362,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K17">
-        <v>0.7777777777777778</v>
+        <v>0.765625</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1394,13 +1394,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3636363636363636</v>
+        <v>0.3866666666666667</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1412,19 +1412,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K18">
-        <v>0.7734375</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L18">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1444,13 +1444,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3392857142857143</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1462,19 +1462,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K19">
-        <v>0.7676056338028169</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L19">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1494,13 +1494,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2444444444444444</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1512,19 +1512,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K20">
-        <v>0.7625</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L20">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1544,13 +1544,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2261904761904762</v>
+        <v>0.2658730158730159</v>
       </c>
       <c r="C21">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D21">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1562,19 +1562,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K21">
-        <v>0.7291666666666666</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L21">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1594,13 +1594,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1420911528150134</v>
+        <v>0.2555555555555555</v>
       </c>
       <c r="C22">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1612,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>320</v>
+        <v>67</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K22">
-        <v>0.7209302325581395</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1644,13 +1644,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.06333333333333334</v>
+        <v>0.1340482573726542</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>52</v>
@@ -1671,10 +1671,10 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="L23">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1694,37 +1694,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0103126007089913</v>
+        <v>0.01128304319793682</v>
       </c>
       <c r="C24">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D24">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E24">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="F24">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>3071</v>
+        <v>3067</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K24">
-        <v>0.6571428571428571</v>
+        <v>0.7</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1744,37 +1744,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.009826860084230228</v>
+        <v>0.008890968647636874</v>
       </c>
       <c r="C25">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D25">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="F25">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>2116</v>
+        <v>2118</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K25">
-        <v>0.65</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M25">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1794,13 +1794,13 @@
         <v>55</v>
       </c>
       <c r="K26">
-        <v>0.6411764705882353</v>
+        <v>0.6441176470588236</v>
       </c>
       <c r="L26">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M26">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1820,13 +1820,13 @@
         <v>56</v>
       </c>
       <c r="K27">
-        <v>0.6307692307692307</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L27">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="M27">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1838,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>24</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1846,13 +1846,13 @@
         <v>57</v>
       </c>
       <c r="K28">
-        <v>0.5899581589958159</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L28">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="M28">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>98</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1872,13 +1872,13 @@
         <v>58</v>
       </c>
       <c r="K29">
-        <v>0.5830508474576271</v>
+        <v>0.58</v>
       </c>
       <c r="L29">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1890,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>123</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1898,13 +1898,13 @@
         <v>59</v>
       </c>
       <c r="K30">
-        <v>0.58</v>
+        <v>0.5796610169491525</v>
       </c>
       <c r="L30">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="M30">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>21</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1924,25 +1924,25 @@
         <v>60</v>
       </c>
       <c r="K31">
-        <v>0.5714285714285714</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L31">
+        <v>54</v>
+      </c>
+      <c r="M31">
+        <v>54</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>40</v>
-      </c>
-      <c r="M31">
-        <v>40</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1950,13 +1950,13 @@
         <v>61</v>
       </c>
       <c r="K32">
-        <v>0.5638297872340425</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L32">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="M32">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1976,13 +1976,13 @@
         <v>62</v>
       </c>
       <c r="K33">
-        <v>0.4831460674157304</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L33">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M33">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2002,13 +2002,13 @@
         <v>63</v>
       </c>
       <c r="K34">
-        <v>0.4666666666666667</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -2028,13 +2028,13 @@
         <v>64</v>
       </c>
       <c r="K35">
-        <v>0.4313725490196079</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L35">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2054,13 +2054,13 @@
         <v>65</v>
       </c>
       <c r="K36">
-        <v>0.359375</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L36">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2080,13 +2080,13 @@
         <v>66</v>
       </c>
       <c r="K37">
-        <v>0.3287671232876712</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L37">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M37">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2106,13 +2106,13 @@
         <v>67</v>
       </c>
       <c r="K38">
-        <v>0.3076923076923077</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L38">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M38">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
